--- a/target/classes/blacklist.xlsx
+++ b/target/classes/blacklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="2040" yWindow="3440" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="singlesend" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>code</t>
   </si>
@@ -43,22 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 发通知类短信</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 发验证码类短信"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f6c3946ab4a7040c58e91c0e42d96665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13758101856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【测试教育3】您的验证码是0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{$d}casename</t>
@@ -113,11 +97,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"13782920101"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常查找黑名单号码</t>
+    <t>系统子账号全部查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销子账号全部查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统子账号精确查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销子账号精确查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18011111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18011111112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS3"/>
+  <dimension ref="A1:IS5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,68 +1388,114 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
